--- a/template.xlsx
+++ b/template.xlsx
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="2027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2467" uniqueCount="2028">
   <si>
     <t>Metadata field</t>
   </si>
@@ -6217,14 +6217,17 @@
   <si>
     <t>http://publications.europa.eu/resource/authority/language/ENG</t>
   </si>
+  <si>
+    <t>__template.tenforce.com/dataset/keyword_eng</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="204" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -6821,7 +6824,7 @@
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7154,26 +7157,26 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="20" fillId="9" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="20" fillId="9" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="22" fillId="9" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="204" fontId="21" fillId="9" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="9" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="204" fontId="22" fillId="9" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="22" fillId="9" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="204" fontId="21" fillId="9" borderId="26" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="9" borderId="26" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="22" fillId="11" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="22" fillId="11" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7190,7 +7193,7 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="204" fontId="21" fillId="9" borderId="23" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="9" borderId="23" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10613,8 +10616,8 @@
   <dimension ref="A1:IU1701"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D323" sqref="D323"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="60.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12371,7 +12374,9 @@
       <c r="C88" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D88" s="117"/>
+      <c r="D88" s="117" t="s">
+        <v>2027</v>
+      </c>
       <c r="E88" s="54"/>
       <c r="F88" s="9"/>
       <c r="G88" s="8"/>
